--- a/mbs-perturbation/bottleneck/welm/bloated_welm_tanh_results.xlsx
+++ b/mbs-perturbation/bottleneck/welm/bloated_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9529914529914529</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5358744394618834</v>
+        <v>0.8278867102396514</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4605855855855855</v>
+        <v>0.5725</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9399141630901288</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6412587412587412</v>
+        <v>0.6105527638190955</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5780516431924883</v>
+        <v>0.527363184079602</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9570815450643777</v>
+        <v>0.9386792452830188</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5177777777777778</v>
+        <v>0.4487500000000001</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9425736399985327</v>
+        <v>0.9434936664009212</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5467096374552952</v>
+        <v>0.5974105316276698</v>
       </c>
     </row>
   </sheetData>
